--- a/klassegr/klassegrenser_ISI.xlsx
+++ b/klassegr/klassegrenser_ISI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61308-01_fu_intern_hanno_sandvik\NI_vannf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61308-01_fu_intern_hanno_sandvik\NI_vannf\klassegr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC431EF-F45C-4CDE-A103-1D04BD27E161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9FEF12-F749-4364-AAB6-9E5B2B06D1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
   </bookViews>
@@ -503,7 +503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA05597-937A-43B7-A68B-18184DD83021}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -562,7 +564,7 @@
         <v>13.2</v>
       </c>
       <c r="I2">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -591,7 +593,7 @@
         <v>13.2</v>
       </c>
       <c r="I3">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -620,7 +622,7 @@
         <v>13.2</v>
       </c>
       <c r="I4">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -649,7 +651,7 @@
         <v>11.8</v>
       </c>
       <c r="I5">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -678,7 +680,7 @@
         <v>13.2</v>
       </c>
       <c r="I6">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -707,7 +709,7 @@
         <v>13.2</v>
       </c>
       <c r="I7">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -736,7 +738,7 @@
         <v>13.1</v>
       </c>
       <c r="I8">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -765,7 +767,7 @@
         <v>13.1</v>
       </c>
       <c r="I9">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -794,7 +796,7 @@
         <v>13.1</v>
       </c>
       <c r="I10">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -823,7 +825,7 @@
         <v>13.2</v>
       </c>
       <c r="I11">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -852,7 +854,7 @@
         <v>13.2</v>
       </c>
       <c r="I12">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -881,7 +883,7 @@
         <v>13.1</v>
       </c>
       <c r="I13">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -910,7 +912,7 @@
         <v>13.1</v>
       </c>
       <c r="I14">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -939,7 +941,7 @@
         <v>13.1</v>
       </c>
       <c r="I15">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -968,7 +970,7 @@
         <v>13.4</v>
       </c>
       <c r="I16">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -997,7 +999,7 @@
         <v>13.4</v>
       </c>
       <c r="I17">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1026,7 +1028,7 @@
         <v>13.4</v>
       </c>
       <c r="I18">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1055,7 +1057,7 @@
         <v>13.4</v>
       </c>
       <c r="I19">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1084,7 +1086,7 @@
         <v>13.4</v>
       </c>
       <c r="I20">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1113,7 +1115,7 @@
         <v>13.4</v>
       </c>
       <c r="I21">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1142,7 +1144,7 @@
         <v>13.4</v>
       </c>
       <c r="I22">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1171,7 +1173,7 @@
         <v>13.4</v>
       </c>
       <c r="I23">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1200,7 +1202,7 @@
         <v>13.4</v>
       </c>
       <c r="I24">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1229,7 +1231,7 @@
         <v>13.4</v>
       </c>
       <c r="I25">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1258,7 +1260,7 @@
         <v>13.5</v>
       </c>
       <c r="I26">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1287,7 +1289,7 @@
         <v>13.5</v>
       </c>
       <c r="I27">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1316,7 +1318,7 @@
         <v>13.5</v>
       </c>
       <c r="I28">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1345,7 +1347,7 @@
         <v>13.5</v>
       </c>
       <c r="I29">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1374,7 +1376,7 @@
         <v>13.5</v>
       </c>
       <c r="I30">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
   </sheetData>

--- a/klassegr/klassegrenser_ISI.xlsx
+++ b/klassegr/klassegrenser_ISI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61308-01_fu_intern_hanno_sandvik\NI_vannf\klassegr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nina\NatInd\2023\klassegr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9FEF12-F749-4364-AAB6-9E5B2B06D1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90890171-0E98-48E5-949A-7F310E4BA36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -503,9 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA05597-937A-43B7-A68B-18184DD83021}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -543,10 +541,10 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D2">
         <v>4.5999999999999996</v>
@@ -572,10 +570,10 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D3">
         <v>4.5999999999999996</v>
@@ -601,10 +599,10 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D4">
         <v>4.5999999999999996</v>
@@ -630,10 +628,10 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D5">
         <v>4.0999999999999996</v>
@@ -659,10 +657,10 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D6">
         <v>4.5999999999999996</v>
@@ -688,10 +686,10 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D7">
         <v>4.5999999999999996</v>
@@ -717,10 +715,10 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D8">
         <v>4.5</v>
@@ -746,10 +744,10 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D9">
         <v>4.5</v>
@@ -775,10 +773,10 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D10">
         <v>4.5</v>
@@ -804,10 +802,10 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D11">
         <v>4.5999999999999996</v>
@@ -833,10 +831,10 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D12">
         <v>4.5999999999999996</v>
@@ -862,10 +860,10 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D13">
         <v>4.5</v>
@@ -891,10 +889,10 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D14">
         <v>4.5</v>
@@ -920,10 +918,10 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D15">
         <v>4.5</v>
@@ -949,10 +947,10 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D16">
         <v>4.7</v>
@@ -978,10 +976,10 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D17">
         <v>4.7</v>
@@ -1007,10 +1005,10 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D18">
         <v>4.7</v>
@@ -1036,10 +1034,10 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D19">
         <v>4.7</v>
@@ -1065,10 +1063,10 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D20">
         <v>4.7</v>
@@ -1094,10 +1092,10 @@
         <v>28</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D21">
         <v>4.7</v>
@@ -1123,10 +1121,10 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D22">
         <v>4.7</v>
@@ -1152,10 +1150,10 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D23">
         <v>4.7</v>
@@ -1181,10 +1179,10 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D24">
         <v>4.7</v>
@@ -1210,10 +1208,10 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D25">
         <v>4.7</v>
@@ -1239,10 +1237,10 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D26">
         <v>4.7</v>
@@ -1268,10 +1266,10 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D27">
         <v>4.7</v>
@@ -1297,10 +1295,10 @@
         <v>35</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D28">
         <v>4.7</v>
@@ -1326,10 +1324,10 @@
         <v>36</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D29">
         <v>4.7</v>
@@ -1355,10 +1353,10 @@
         <v>37</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D30">
         <v>4.7</v>

--- a/klassegr/klassegrenser_ISI.xlsx
+++ b/klassegr/klassegrenser_ISI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nina\NatInd\2023\klassegr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61308-01_fu_intern_hanno_sandvik\ecRxiv_vann\indicators\NO_WXXX_999\klassegr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90890171-0E98-48E5-949A-7F310E4BA36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB890E2-5FD7-44D6-B6AE-E73DE099F5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,30 +41,6 @@
     <t>typ</t>
   </si>
   <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>SD_nedre</t>
-  </si>
-  <si>
-    <t>SD_D</t>
-  </si>
-  <si>
-    <t>D_M</t>
-  </si>
-  <si>
-    <t>M_G</t>
-  </si>
-  <si>
-    <t>G_SG</t>
-  </si>
-  <si>
-    <t>SG_øvre</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
     <t>CS1</t>
   </si>
   <si>
@@ -150,6 +126,30 @@
   </si>
   <si>
     <t>CB5</t>
+  </si>
+  <si>
+    <t>pess</t>
+  </si>
+  <si>
+    <t>X0</t>
+  </si>
+  <si>
+    <t>X20</t>
+  </si>
+  <si>
+    <t>X40</t>
+  </si>
+  <si>
+    <t>X60</t>
+  </si>
+  <si>
+    <t>X80</t>
+  </si>
+  <si>
+    <t>X100</t>
+  </si>
+  <si>
+    <t>opt</t>
   </si>
 </sst>
 </file>
@@ -205,9 +205,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -245,7 +245,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -351,7 +351,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -493,7 +493,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -503,7 +503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA05597-937A-43B7-A68B-18184DD83021}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -512,33 +514,33 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1.58</v>
@@ -567,7 +569,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1.58</v>
@@ -596,7 +598,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1.58</v>
@@ -625,7 +627,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1.58</v>
@@ -654,7 +656,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1.58</v>
@@ -683,7 +685,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1.58</v>
@@ -712,7 +714,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1.58</v>
@@ -741,7 +743,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>1.58</v>
@@ -770,7 +772,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1.58</v>
@@ -799,7 +801,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1.58</v>
@@ -828,7 +830,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1.58</v>
@@ -857,7 +859,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1.58</v>
@@ -886,7 +888,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>1.58</v>
@@ -915,7 +917,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>1.58</v>
@@ -944,7 +946,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>1.58</v>
@@ -973,7 +975,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>1.58</v>
@@ -1002,7 +1004,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>1.58</v>
@@ -1031,7 +1033,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>1.58</v>
@@ -1060,7 +1062,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>1.58</v>
@@ -1089,7 +1091,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>1.58</v>
@@ -1118,7 +1120,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>1.58</v>
@@ -1147,7 +1149,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>1.58</v>
@@ -1176,7 +1178,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>1.58</v>
@@ -1205,7 +1207,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>1.58</v>
@@ -1234,7 +1236,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>1.58</v>
@@ -1263,7 +1265,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>1.58</v>
@@ -1292,7 +1294,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>1.58</v>
@@ -1321,7 +1323,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>1.58</v>
@@ -1350,7 +1352,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>1.58</v>
